--- a/datafiles-2017/xlsfiles/kra2012to2016_spa.xlsx
+++ b/datafiles-2017/xlsfiles/kra2012to2016_spa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="KRA" sheetId="1" r:id="rId1"/>
@@ -845,13 +845,13 @@
     <t>West Boulevard</t>
   </si>
   <si>
-    <t>_Suburbs</t>
+    <t>Suburbs</t>
   </si>
   <si>
-    <t>_Unknown neighborhood</t>
+    <t>Unknown neighborhood</t>
   </si>
   <si>
-    <t>__CMSD</t>
+    <t>CMSD</t>
   </si>
 </sst>
 </file>
